--- a/documentation/ElaborazioneDatiMetrica3.xlsx
+++ b/documentation/ElaborazioneDatiMetrica3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB39526-BAC6-4C40-A32D-48A44EF70F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47320002-2903-584C-A20E-A52EF7900321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrica 4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t>Organization Chart</t>
+  </si>
+  <si>
+    <t>Thesis Approvation</t>
+  </si>
+  <si>
+    <t>Didactic Offer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +101,1425 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.583333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.091666699999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.191667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>481.308333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>658.09166700000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>896.81666700000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1130.5153800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1534.4333300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52DC-7F4D-8778-F7BB31549541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>462.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>628.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>840.43499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1089.615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1404.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52DC-7F4D-8778-F7BB31549541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.693750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179.54374999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>575.29375000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>760.23125000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1106.41875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1377.7625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1817.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52DC-7F4D-8778-F7BB31549541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.2344828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.9517241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.641379299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.32749999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333.92758600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>502.30689699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673.64137900000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>924.56206899999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1201.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1605.23793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-52DC-7F4D-8778-F7BB31549541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474565552"/>
+        <c:axId val="439676544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474565552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1600"/>
+                  <a:t>Numero Utenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439676544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="439676544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1600"/>
+                  <a:t>Latenza (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474565552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05985FD-B662-BD3A-45AB-3B8980287EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,6 +1819,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>80</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+      <c r="E1">
+        <v>160</v>
+      </c>
+      <c r="F1">
+        <v>200</v>
+      </c>
+      <c r="G1">
+        <v>240</v>
+      </c>
+      <c r="H1">
+        <v>280</v>
+      </c>
+      <c r="I1">
+        <v>320</v>
+      </c>
+      <c r="J1">
+        <v>360</v>
+      </c>
+      <c r="K1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.55</v>
+      </c>
+      <c r="C2">
+        <v>23.583333</v>
+      </c>
+      <c r="D2">
+        <v>58.091666699999998</v>
+      </c>
+      <c r="E2">
+        <v>150.191667</v>
+      </c>
+      <c r="F2">
+        <v>345.45</v>
+      </c>
+      <c r="G2">
+        <v>481.308333</v>
+      </c>
+      <c r="H2">
+        <v>658.09166700000003</v>
+      </c>
+      <c r="I2">
+        <v>896.81666700000005</v>
+      </c>
+      <c r="J2">
+        <v>1130.5153800000001</v>
+      </c>
+      <c r="K2">
+        <v>1534.4333300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.62</v>
+      </c>
+      <c r="C3">
+        <v>24.97</v>
+      </c>
+      <c r="D3">
+        <v>56.305</v>
+      </c>
+      <c r="E3">
+        <v>185.68</v>
+      </c>
+      <c r="F3">
+        <v>306.86</v>
+      </c>
+      <c r="G3">
+        <v>462.6</v>
+      </c>
+      <c r="H3">
+        <v>628.42999999999995</v>
+      </c>
+      <c r="I3">
+        <v>840.43499999999995</v>
+      </c>
+      <c r="J3">
+        <v>1089.615</v>
+      </c>
+      <c r="K3">
+        <v>1404.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.55</v>
+      </c>
+      <c r="C4">
+        <v>26.9</v>
+      </c>
+      <c r="D4">
+        <v>63.693750000000001</v>
+      </c>
+      <c r="E4">
+        <v>179.54374999999999</v>
+      </c>
+      <c r="F4">
+        <v>400.2</v>
+      </c>
+      <c r="G4">
+        <v>575.29375000000005</v>
+      </c>
+      <c r="H4">
+        <v>760.23125000000005</v>
+      </c>
+      <c r="I4">
+        <v>1106.41875</v>
+      </c>
+      <c r="J4">
+        <v>1377.7625</v>
+      </c>
+      <c r="K4">
+        <v>1817.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15.2344828</v>
+      </c>
+      <c r="C5">
+        <v>26.9517241</v>
+      </c>
+      <c r="D5">
+        <v>74.641379299999997</v>
+      </c>
+      <c r="E5">
+        <v>194.32749999999999</v>
+      </c>
+      <c r="F5">
+        <v>333.92758600000002</v>
+      </c>
+      <c r="G5">
+        <v>502.30689699999999</v>
+      </c>
+      <c r="H5">
+        <v>673.64137900000003</v>
+      </c>
+      <c r="I5">
+        <v>924.56206899999995</v>
+      </c>
+      <c r="J5">
+        <v>1201.83</v>
+      </c>
+      <c r="K5">
+        <v>1605.23793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
